--- a/biology/Botanique/Anoda/Anoda.xlsx
+++ b/biology/Botanique/Anoda/Anoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anoda est un genre de la famille des Malvacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Anoda est composé de plantes herbacées, vivaces.
 La caractéristique principale consiste dans le fruit divisé en locules monograines.
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Anoda sont originaires d'Amérique centrale et du Sud, principalement du Mexique.
 L'utilisation ornementale de quelques espèces, principalement Anoda cristata, ont diffusé ce genre à l'ensemble des pays à climat tempéré.
@@ -576,9 +592,11 @@
           <t>Position taxinomique et historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre est décrit par Antonio José Cavanilles en 1785[1]. L'espèce type du genre est Sida cristata L., que Cavanilles renomme Anoda hastata.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est décrit par Antonio José Cavanilles en 1785. L'espèce type du genre est Sida cristata L., que Cavanilles renomme Anoda hastata.
 En 1837,  Diederich Franz Leonhard von Schlechtendal effectue une première révision générale du genre.
 En 1887, Asa Gray produit aussi une révision importante du genre.
 Enfin, en 1987,  Paul Arnold Fryxell produit la dernière révision fixant le genre dans ses limites actuelles.
@@ -610,16 +628,18 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La liste des espèces a été constituée à partir des index IPNI (International Plant Names Index) et Tropicos (Index du jardin botanique du Missouri), à la date de décembre 2011. Les espèces conservées dans le genre sont en caractères gras :
 Anoda abutiloides A.Gray (1887)
-Anoda acerifolia Cav. (1803) : voir Anoda cristata (L.) Schltdl.[2]
+Anoda acerifolia Cav. (1803) : voir Anoda cristata (L.) Schltdl.
 Anoda acerifolia var. minoriflora Hochr. (1916) : voir Anoda cristata (L.) Schltdl.
 Anoda acerifolia var. typica Hochr. (1916)
 Anoda albiflora Fryxell (1987)
 Anoda angustifolia Spreng. (1801)
-Anoda arenariiflora Hort. ex Steud. (1840) : voir Anoda crenatiflora Ortega[3]
+Anoda arenariiflora Hort. ex Steud. (1840) : voir Anoda crenatiflora Ortega
 Anoda arizonica A.Gray (1887) : voir Anoda cristata (L.) Schltdl.
 Anoda arizonica var. digitata A.Gray (1887) : voir Anoda cristata var. digitata (A.Gray) Hochr.
 Anoda brachyantha Rchb. (1824) : voir Anoda cristata var. brachyantha (Rchb.) Hochr.
